--- a/Data/processed/data_gpt_ve_processed.xlsx
+++ b/Data/processed/data_gpt_ve_processed.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t xml:space="preserve">psp</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t xml:space="preserve">match_sm_3_olmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size_kb_sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size_kb_prereg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size_kb_pubstud</t>
   </si>
   <si>
     <t xml:space="preserve">The power of moral concerns in predicting whistleblowing decisions</t>
@@ -910,85 +919,103 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>411</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>582.79</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>182.28</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>400.51</v>
       </c>
     </row>
     <row r="3">
@@ -996,79 +1023,88 @@
         <v>412</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>652.2</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>267.48</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>384.72</v>
       </c>
     </row>
     <row r="4">
@@ -1076,79 +1112,88 @@
         <v>413</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z4" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>658.25</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>273.53</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>384.72</v>
       </c>
     </row>
     <row r="5">
@@ -1156,79 +1201,88 @@
         <v>417</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z5" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2348.74</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>87.82</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2260.92</v>
       </c>
     </row>
     <row r="6">
@@ -1236,79 +1290,88 @@
         <v>418</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1086.25</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>207.4</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>878.85</v>
       </c>
     </row>
     <row r="7">
@@ -1316,79 +1379,88 @@
         <v>419</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Y7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Z7" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>754.82</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>409.91</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>344.91</v>
       </c>
     </row>
     <row r="8">
@@ -1396,79 +1468,88 @@
         <v>420</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" t="s">
         <v>51</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" t="s">
-        <v>32</v>
-      </c>
-      <c r="V8" t="s">
-        <v>32</v>
-      </c>
-      <c r="W8" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" t="s">
-        <v>48</v>
-      </c>
       <c r="Y8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Z8" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1846.11</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>263.03</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1583.08</v>
       </c>
     </row>
     <row r="9">
@@ -1476,79 +1557,88 @@
         <v>421</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z9" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>482.13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>84.27</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>397.86</v>
       </c>
     </row>
     <row r="10">
@@ -1556,79 +1646,88 @@
         <v>422</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Y10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Z10" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1082.46</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>257.16</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>825.3</v>
       </c>
     </row>
     <row r="11">
@@ -1636,79 +1735,88 @@
         <v>423</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z11" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1081.58</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>256.28</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>825.3</v>
       </c>
     </row>
     <row r="12">
@@ -1716,79 +1824,88 @@
         <v>424</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="X12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z12" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1085.85</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>260.55</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>825.3</v>
       </c>
     </row>
     <row r="13">
@@ -1796,79 +1913,88 @@
         <v>425</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z13" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2486.34</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>428.79</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2057.55</v>
       </c>
     </row>
     <row r="14">
@@ -1876,79 +2002,88 @@
         <v>427</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z14" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2599.82</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>450.76</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2149.06</v>
       </c>
     </row>
     <row r="15">
@@ -1956,79 +2091,88 @@
         <v>428</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Y15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Z15" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>796.14</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>490.17</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>305.97</v>
       </c>
     </row>
     <row r="16">
@@ -2036,79 +2180,88 @@
         <v>429</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z16" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1512.38</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>909.68</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>602.7</v>
       </c>
     </row>
     <row r="17">
@@ -2116,79 +2269,88 @@
         <v>432</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="W17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="X17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z17" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2965.12</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>126.09</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2839.03</v>
       </c>
     </row>
     <row r="18">
@@ -2196,79 +2358,88 @@
         <v>433</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="W18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="X18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z18" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1721.58</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>279.04</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1442.54</v>
       </c>
     </row>
     <row r="19">
@@ -2276,79 +2447,88 @@
         <v>437</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="W19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="X19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Y19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Z19" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2743.46</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>266.64</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>2476.82</v>
       </c>
     </row>
     <row r="20">
@@ -2356,79 +2536,88 @@
         <v>438</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z20" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>918.72</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>198.27</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>720.45</v>
       </c>
     </row>
     <row r="21">
@@ -2436,79 +2625,88 @@
         <v>439</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z21" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>919.43</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>198.98</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>720.45</v>
       </c>
     </row>
     <row r="22">
@@ -2516,79 +2714,88 @@
         <v>440</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z22" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>919.02</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>198.57</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>720.45</v>
       </c>
     </row>
     <row r="23">
@@ -2596,79 +2803,88 @@
         <v>441</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z23" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>885.82</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>165.37</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>720.45</v>
       </c>
     </row>
     <row r="24">
@@ -2676,79 +2892,88 @@
         <v>445</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z24" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>536.03</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>193.15</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>342.88</v>
       </c>
     </row>
     <row r="25">
@@ -2756,79 +2981,88 @@
         <v>446</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>45565</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z25" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1176.77</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>195.21</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>981.56</v>
       </c>
     </row>
     <row r="26">
@@ -2836,79 +3070,88 @@
         <v>448</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z26" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>677.18</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>267.65</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>409.53</v>
       </c>
     </row>
     <row r="27">
@@ -2916,79 +3159,88 @@
         <v>450</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Y27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Z27" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2760.6</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>2675.51</v>
       </c>
     </row>
     <row r="28">
@@ -2996,79 +3248,88 @@
         <v>451</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z28" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>252.93</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>126.69</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>126.24</v>
       </c>
     </row>
     <row r="29">
@@ -3076,79 +3337,88 @@
         <v>452</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z29" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>566.46</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>273.21</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>293.25</v>
       </c>
     </row>
     <row r="30">
@@ -3156,79 +3426,88 @@
         <v>455</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z30" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>678</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>184.87</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>493.13</v>
       </c>
     </row>
     <row r="31">
@@ -3236,79 +3515,88 @@
         <v>456</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="X31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z31" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>678</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>184.87</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>493.13</v>
       </c>
     </row>
     <row r="32">
@@ -3316,79 +3604,88 @@
         <v>457</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z32" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>680.54</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>295.17</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>385.37</v>
       </c>
     </row>
     <row r="33">
@@ -3396,79 +3693,88 @@
         <v>458</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z33" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>514.22</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>88.12</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>426.1</v>
       </c>
     </row>
     <row r="34">
@@ -3476,79 +3782,88 @@
         <v>461</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z34" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>2422.81</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>200.1</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>2222.71</v>
       </c>
     </row>
     <row r="35">
@@ -3556,79 +3871,88 @@
         <v>462</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z35" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>688.21</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>86.91</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>601.3</v>
       </c>
     </row>
     <row r="36">
@@ -3636,79 +3960,88 @@
         <v>463</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z36" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>873.93</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>313.44</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>560.49</v>
       </c>
     </row>
     <row r="37">
@@ -3716,79 +4049,88 @@
         <v>464</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Y37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Z37" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>360.43</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>145.92</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>214.51</v>
       </c>
     </row>
     <row r="38">
@@ -3796,79 +4138,88 @@
         <v>465</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z38" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1158.67</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>307.76</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>850.91</v>
       </c>
     </row>
     <row r="39">
@@ -3876,79 +4227,88 @@
         <v>466</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H39" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N39" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R39" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y39" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z39" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>2558.54</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>88.26</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>2470.28</v>
       </c>
     </row>
     <row r="40">
@@ -3956,79 +4316,88 @@
         <v>468</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H40" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z40" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>2558</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>87.72</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>2470.28</v>
       </c>
     </row>
     <row r="41">
@@ -4036,79 +4405,88 @@
         <v>469</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N41" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S41" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U41" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V41" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W41" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X41" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z41" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>2557.51</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>87.23</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2470.28</v>
       </c>
     </row>
     <row r="42">
@@ -4116,79 +4494,88 @@
         <v>476</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H42" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M42" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U42" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V42" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W42" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z42" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>922.04</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>121.89</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>800.15</v>
       </c>
     </row>
     <row r="43">
@@ -4196,79 +4583,88 @@
         <v>477</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H43" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U43" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V43" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W43" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z43" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>923.22</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>123.07</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>800.15</v>
       </c>
     </row>
     <row r="44">
@@ -4276,79 +4672,88 @@
         <v>478</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H44" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z44" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>448.5</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>124.46</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>324.04</v>
       </c>
     </row>
     <row r="45">
@@ -4356,79 +4761,88 @@
         <v>480</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H45" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="X45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z45" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>619.71</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>319.84</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>299.87</v>
       </c>
     </row>
     <row r="46">
@@ -4436,79 +4850,88 @@
         <v>481</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H46" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="X46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z46" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>480.46</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>136.13</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>344.33</v>
       </c>
     </row>
     <row r="47">
@@ -4516,79 +4939,88 @@
         <v>482</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V47" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W47" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X47" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z47" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>479.18</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>134.85</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>344.33</v>
       </c>
     </row>
     <row r="48">
@@ -4596,79 +5028,88 @@
         <v>484</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H48" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z48" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>479.95</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>135.62</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>344.33</v>
       </c>
     </row>
     <row r="49">
@@ -4676,79 +5117,88 @@
         <v>411</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G49" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H49" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z49" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>582.79</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>182.28</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>400.51</v>
       </c>
     </row>
     <row r="50">
@@ -4756,79 +5206,88 @@
         <v>412</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G50" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H50" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S50" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T50" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U50" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V50" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W50" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X50" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z50" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>652.2</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>267.48</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>384.72</v>
       </c>
     </row>
     <row r="51">
@@ -4836,79 +5295,88 @@
         <v>413</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G51" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S51" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T51" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U51" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V51" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W51" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X51" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z51" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>658.25</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>273.53</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>384.72</v>
       </c>
     </row>
     <row r="52">
@@ -4916,79 +5384,88 @@
         <v>417</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F52" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G52" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H52" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M52" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U52" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V52" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W52" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y52" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z52" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>2348.74</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>87.82</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2260.92</v>
       </c>
     </row>
     <row r="53">
@@ -4996,79 +5473,88 @@
         <v>418</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G53" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z53" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>1086.25</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>207.4</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>878.85</v>
       </c>
     </row>
     <row r="54">
@@ -5076,79 +5562,88 @@
         <v>419</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G54" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U54" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W54" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X54" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Y54" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Z54" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>754.82</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>409.91</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>344.91</v>
       </c>
     </row>
     <row r="55">
@@ -5156,79 +5651,88 @@
         <v>420</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G55" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U55" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V55" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="X55" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Y55" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Z55" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1846.11</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>263.03</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1583.08</v>
       </c>
     </row>
     <row r="56">
@@ -5236,79 +5740,88 @@
         <v>421</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G56" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H56" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M56" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N56" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O56" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T56" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U56" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V56" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W56" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X56" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z56" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>482.13</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>84.27</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>397.86</v>
       </c>
     </row>
     <row r="57">
@@ -5316,79 +5829,88 @@
         <v>422</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E57" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G57" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I57" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K57" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N57" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O57" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P57" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q57" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R57" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S57" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X57" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Y57" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Z57" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>1082.46</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>257.16</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>825.3</v>
       </c>
     </row>
     <row r="58">
@@ -5396,79 +5918,88 @@
         <v>423</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E58" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G58" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H58" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M58" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S58" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T58" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U58" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V58" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W58" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z58" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1081.58</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>256.28</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>825.3</v>
       </c>
     </row>
     <row r="59">
@@ -5476,79 +6007,88 @@
         <v>424</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E59" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G59" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H59" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M59" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T59" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U59" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V59" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="X59" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z59" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>1085.85</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>260.55</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>825.3</v>
       </c>
     </row>
     <row r="60">
@@ -5556,79 +6096,88 @@
         <v>425</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G60" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H60" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z60" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>2486.34</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>428.79</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>2057.55</v>
       </c>
     </row>
     <row r="61">
@@ -5636,79 +6185,88 @@
         <v>427</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G61" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H61" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I61" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J61" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K61" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L61" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M61" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N61" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O61" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P61" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q61" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R61" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S61" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T61" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U61" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V61" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W61" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X61" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y61" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z61" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>2599.82</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>450.76</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>2149.06</v>
       </c>
     </row>
     <row r="62">
@@ -5716,79 +6274,88 @@
         <v>428</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G62" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I62" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J62" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K62" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L62" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M62" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N62" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O62" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P62" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q62" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R62" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S62" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T62" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U62" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V62" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W62" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X62" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Y62" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Z62" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>796.14</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>490.17</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>305.97</v>
       </c>
     </row>
     <row r="63">
@@ -5796,79 +6363,88 @@
         <v>429</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E63" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G63" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H63" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T63" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U63" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V63" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W63" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z63" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>1512.38</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>909.68</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>602.7</v>
       </c>
     </row>
     <row r="64">
@@ -5876,79 +6452,88 @@
         <v>432</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E64" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F64" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G64" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M64" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S64" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T64" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U64" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V64" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="W64" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="X64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y64" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z64" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>2965.12</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>126.09</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>2839.03</v>
       </c>
     </row>
     <row r="65">
@@ -5956,79 +6541,88 @@
         <v>433</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G65" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M65" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V65" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="W65" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="X65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z65" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1721.58</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>279.04</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1442.54</v>
       </c>
     </row>
     <row r="66">
@@ -6036,79 +6630,88 @@
         <v>437</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E66" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G66" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I66" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J66" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K66" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L66" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M66" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N66" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O66" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P66" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q66" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R66" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S66" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T66" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U66" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V66" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="W66" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="X66" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Y66" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Z66" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>2743.46</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>266.64</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>2476.82</v>
       </c>
     </row>
     <row r="67">
@@ -6116,79 +6719,88 @@
         <v>438</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E67" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G67" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H67" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I67" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K67" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R67" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S67" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y67" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z67" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>918.72</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>198.27</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>720.45</v>
       </c>
     </row>
     <row r="68">
@@ -6196,79 +6808,88 @@
         <v>439</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E68" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G68" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H68" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I68" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J68" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K68" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L68" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M68" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N68" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O68" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P68" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q68" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R68" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S68" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T68" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U68" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V68" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W68" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X68" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y68" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z68" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>919.43</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>198.98</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>720.45</v>
       </c>
     </row>
     <row r="69">
@@ -6276,79 +6897,88 @@
         <v>440</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="E69" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G69" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H69" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J69" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M69" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N69" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P69" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q69" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U69" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V69" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W69" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z69" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>919.02</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>198.57</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>720.45</v>
       </c>
     </row>
   </sheetData>
